--- a/Code/Results/Cases/Case_1_223/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_223/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.29043874989136</v>
+        <v>7.973936579530329</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.34972013534523</v>
+        <v>2.888251324519063</v>
       </c>
       <c r="E2">
-        <v>31.35800337974204</v>
+        <v>16.71456242210408</v>
       </c>
       <c r="F2">
-        <v>33.21936882378015</v>
+        <v>22.91516405752209</v>
       </c>
       <c r="G2">
-        <v>1.972485176699832</v>
+        <v>3.554465621914874</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.37165960169562</v>
+        <v>17.51723746316919</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.66009174000652</v>
+        <v>17.13588176064243</v>
       </c>
       <c r="O2">
-        <v>26.43978069555541</v>
+        <v>19.41803292077183</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.642069640698997</v>
+        <v>7.726105456002573</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.252862348009557</v>
+        <v>2.868465467081656</v>
       </c>
       <c r="E3">
-        <v>28.97648187263919</v>
+        <v>15.74734985263152</v>
       </c>
       <c r="F3">
-        <v>30.78999478642793</v>
+        <v>22.18566614097691</v>
       </c>
       <c r="G3">
-        <v>1.98298446118674</v>
+        <v>3.558084161067144</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.95198825171213</v>
+        <v>17.43545559361282</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.03548212919463</v>
+        <v>16.94880368210766</v>
       </c>
       <c r="O3">
-        <v>24.488499581227</v>
+        <v>18.92251440240058</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.219808664142482</v>
+        <v>7.569968192699863</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.193806291917562</v>
+        <v>2.856048993626553</v>
       </c>
       <c r="E4">
-        <v>27.4576849346444</v>
+        <v>15.12794543687676</v>
       </c>
       <c r="F4">
-        <v>29.23296184086118</v>
+        <v>21.73354054194773</v>
       </c>
       <c r="G4">
-        <v>1.989542951437232</v>
+        <v>3.560419138670963</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.6940167676315</v>
+        <v>17.38881070702378</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.64211895543887</v>
+        <v>16.8348163882461</v>
       </c>
       <c r="O4">
-        <v>23.23684182374441</v>
+        <v>18.61841796641237</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.041664563526798</v>
+        <v>7.505429865115993</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.169796820415624</v>
+        <v>2.850921696415942</v>
       </c>
       <c r="E5">
-        <v>26.82386341189575</v>
+        <v>14.86937712186838</v>
       </c>
       <c r="F5">
-        <v>28.58168610131687</v>
+        <v>21.54856223081956</v>
       </c>
       <c r="G5">
-        <v>1.992247343678627</v>
+        <v>3.561399240755241</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.5890011824499</v>
+        <v>17.37072111760673</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.4795824747428</v>
+        <v>16.78863424108822</v>
       </c>
       <c r="O5">
-        <v>22.71298257078602</v>
+        <v>18.49473964450635</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.011717599186582</v>
+        <v>7.494660968687292</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.165812207870618</v>
+        <v>2.85006623315215</v>
       </c>
       <c r="E6">
-        <v>26.71769931539487</v>
+        <v>14.8260790259931</v>
       </c>
       <c r="F6">
-        <v>28.47252089774414</v>
+        <v>21.51781232752263</v>
       </c>
       <c r="G6">
-        <v>1.992698422672596</v>
+        <v>3.561563715616634</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.57157555785396</v>
+        <v>17.36777342702478</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.45246571237607</v>
+        <v>16.78098333545059</v>
       </c>
       <c r="O6">
-        <v>22.62515391665235</v>
+        <v>18.47422376162881</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.217430712680025</v>
+        <v>7.569101375577702</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.193482321617106</v>
+        <v>2.855980118445007</v>
       </c>
       <c r="E7">
-        <v>27.44919817488972</v>
+        <v>15.12448283059672</v>
       </c>
       <c r="F7">
-        <v>29.2242468066048</v>
+        <v>21.73104838485154</v>
       </c>
       <c r="G7">
-        <v>1.989579290728049</v>
+        <v>3.560432240795761</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.69259979827776</v>
+        <v>17.38856299825989</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.63993565893843</v>
+        <v>16.8341924095864</v>
       </c>
       <c r="O7">
-        <v>23.22983314973489</v>
+        <v>18.61674873665768</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.07189696902256</v>
+        <v>7.889357710724819</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.31620602578425</v>
+        <v>2.881484681021925</v>
       </c>
       <c r="E8">
-        <v>30.54815235421995</v>
+        <v>16.3865093745028</v>
       </c>
       <c r="F8">
-        <v>32.39507205034557</v>
+        <v>22.66469596995105</v>
       </c>
       <c r="G8">
-        <v>1.976084409734664</v>
+        <v>3.555689875988606</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.22712496895313</v>
+        <v>17.48831115075855</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.44690696866405</v>
+        <v>17.07122325684954</v>
       </c>
       <c r="O8">
-        <v>25.77788376372133</v>
+        <v>19.24726691713163</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.5558589558573</v>
+        <v>8.4824544463425</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.562807521672415</v>
+        <v>2.929380739128483</v>
       </c>
       <c r="E9">
-        <v>36.21211963455751</v>
+        <v>18.80736662390711</v>
       </c>
       <c r="F9">
-        <v>38.11286333711389</v>
+        <v>24.4489572850658</v>
       </c>
       <c r="G9">
-        <v>1.950322133379234</v>
+        <v>3.547282679132513</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.26538367260168</v>
+        <v>17.71126666152012</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.94189970660575</v>
+        <v>17.54092831277462</v>
       </c>
       <c r="O9">
-        <v>30.36699090932279</v>
+        <v>20.47631796316274</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.52970929120774</v>
+        <v>8.892805469389883</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.752223080666011</v>
+        <v>2.96329102212657</v>
       </c>
       <c r="E10">
-        <v>40.18027455303738</v>
+        <v>20.49547908228563</v>
       </c>
       <c r="F10">
-        <v>42.04084519015982</v>
+        <v>25.71537767688056</v>
       </c>
       <c r="G10">
-        <v>1.931517324779007</v>
+        <v>3.541642386682013</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.0125993578436</v>
+        <v>17.89037526883937</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.97606265756467</v>
+        <v>17.88621396499388</v>
       </c>
       <c r="O10">
-        <v>33.51877322859591</v>
+        <v>21.36392112697861</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.94761701402773</v>
+        <v>9.073239364152236</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.841551368769165</v>
+        <v>2.978442842350302</v>
       </c>
       <c r="E11">
-        <v>41.96009371619358</v>
+        <v>21.22102878584207</v>
       </c>
       <c r="F11">
-        <v>43.77766396158039</v>
+        <v>26.2789289706539</v>
       </c>
       <c r="G11">
-        <v>1.922905058533718</v>
+        <v>3.539191319903617</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.34734226049181</v>
+        <v>17.97487022382017</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.43071426220711</v>
+        <v>18.04275315944065</v>
       </c>
       <c r="O11">
-        <v>34.9127806164402</v>
+        <v>21.76229304255146</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.1022730632135</v>
+        <v>9.140615808878705</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.875980977148886</v>
+        <v>2.984141199598102</v>
       </c>
       <c r="E12">
-        <v>42.63217003938001</v>
+        <v>21.48972210935719</v>
       </c>
       <c r="F12">
-        <v>44.42910347968064</v>
+        <v>26.4903152199852</v>
       </c>
       <c r="G12">
-        <v>1.919626819093136</v>
+        <v>3.538279535533335</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.47322318570792</v>
+        <v>18.0072731922733</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.60047737535903</v>
+        <v>18.10190618682539</v>
       </c>
       <c r="O12">
-        <v>35.43574939600594</v>
+        <v>21.91221204852734</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.06912484624269</v>
+        <v>9.126148118074333</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.868536388806514</v>
+        <v>2.982915702787114</v>
       </c>
       <c r="E13">
-        <v>42.48747916994569</v>
+        <v>21.43212296421097</v>
       </c>
       <c r="F13">
-        <v>44.28906556110414</v>
+        <v>26.44488234123333</v>
       </c>
       <c r="G13">
-        <v>1.920333757189702</v>
+        <v>3.538475177899426</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.44615360195267</v>
+        <v>18.00027699228527</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.56402467484079</v>
+        <v>18.08917283935257</v>
       </c>
       <c r="O13">
-        <v>35.32332264407044</v>
+        <v>21.87996832303193</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.96041265918634</v>
+        <v>9.078801786399685</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.844370855340157</v>
+        <v>2.978912436746874</v>
       </c>
       <c r="E14">
-        <v>42.01541264766664</v>
+        <v>21.24325551487777</v>
       </c>
       <c r="F14">
-        <v>43.83137760790595</v>
+        <v>26.29636144028487</v>
       </c>
       <c r="G14">
-        <v>1.92263575136847</v>
+        <v>3.539115979214815</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.35771691037965</v>
+        <v>17.97752804593542</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.44472964347819</v>
+        <v>18.04762249193304</v>
       </c>
       <c r="O14">
-        <v>34.95589883823121</v>
+        <v>21.77464658914564</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.89335534820421</v>
+        <v>9.049675604494444</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.829652280497045</v>
+        <v>2.976455205106719</v>
       </c>
       <c r="E15">
-        <v>41.72606855470212</v>
+        <v>21.12678111820752</v>
       </c>
       <c r="F15">
-        <v>43.55024687919731</v>
+        <v>26.20511928788498</v>
       </c>
       <c r="G15">
-        <v>1.924043294858125</v>
+        <v>3.539510618406177</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.30342859422275</v>
+        <v>17.9636457851309</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.37134134399622</v>
+        <v>18.02215401479316</v>
       </c>
       <c r="O15">
-        <v>34.73022805662522</v>
+        <v>21.71000761895239</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.50189400312872</v>
+        <v>8.880883512103345</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.746460802471977</v>
+        <v>2.962295308117491</v>
       </c>
       <c r="E16">
-        <v>40.06359001551278</v>
+        <v>20.44721311684653</v>
       </c>
       <c r="F16">
-        <v>41.92640926738876</v>
+        <v>25.67827694917971</v>
       </c>
       <c r="G16">
-        <v>1.932078291152787</v>
+        <v>3.541804868354967</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.99060724195167</v>
+        <v>17.8849117193195</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.94602056483716</v>
+        <v>17.87596887941633</v>
       </c>
       <c r="O16">
-        <v>33.42693701927526</v>
+        <v>21.33776399663439</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.25532470262209</v>
+        <v>8.775697920554309</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.696330603022409</v>
+        <v>2.9535385342362</v>
       </c>
       <c r="E17">
-        <v>39.03835436402788</v>
+        <v>20.01949224721977</v>
       </c>
       <c r="F17">
-        <v>40.91803401276293</v>
+        <v>25.3517026014505</v>
       </c>
       <c r="G17">
-        <v>1.936987037635568</v>
+        <v>3.543241618569027</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.79727727844843</v>
+        <v>17.83736449730081</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.68095489707132</v>
+        <v>17.78611779882749</v>
       </c>
       <c r="O17">
-        <v>32.61775505244245</v>
+        <v>21.10790372692033</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.11114096131534</v>
+        <v>8.714613687309544</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.667784052953446</v>
+        <v>2.948476059198042</v>
       </c>
       <c r="E18">
-        <v>38.44616033910527</v>
+        <v>19.76948715586678</v>
       </c>
       <c r="F18">
-        <v>40.33326736033546</v>
+        <v>25.16269573567658</v>
       </c>
       <c r="G18">
-        <v>1.939805575858395</v>
+        <v>3.544078805245713</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.68559980266637</v>
+        <v>17.81030229408061</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.52701623627309</v>
+        <v>17.73439049486328</v>
       </c>
       <c r="O18">
-        <v>32.14853704850322</v>
+        <v>20.9751943103584</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.06191650564073</v>
+        <v>8.693832984641938</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.658163996626876</v>
+        <v>2.946757555924558</v>
       </c>
       <c r="E19">
-        <v>38.24517615015711</v>
+        <v>19.68415305554162</v>
       </c>
       <c r="F19">
-        <v>40.13442942213968</v>
+        <v>25.09850720800331</v>
       </c>
       <c r="G19">
-        <v>1.94075928968168</v>
+        <v>3.544364121757167</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.64770975113494</v>
+        <v>17.80118939117589</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.47464540079023</v>
+        <v>17.71686987832943</v>
       </c>
       <c r="O19">
-        <v>31.98899345666321</v>
+        <v>20.93018037350943</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.28181696041138</v>
+        <v>8.786955979029495</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.70163637694551</v>
+        <v>2.954473378242521</v>
       </c>
       <c r="E20">
-        <v>39.14774034632937</v>
+        <v>20.06543668049255</v>
       </c>
       <c r="F20">
-        <v>41.02586533535012</v>
+        <v>25.38658970316626</v>
       </c>
       <c r="G20">
-        <v>1.936465051754432</v>
+        <v>3.543087556526535</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.81790819761057</v>
+        <v>17.84239660774314</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.70932576861091</v>
+        <v>17.79568785271765</v>
       </c>
       <c r="O20">
-        <v>32.70428157197182</v>
+        <v>21.13242566986916</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.99244155991444</v>
+        <v>9.092734726993216</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.851451138798423</v>
+        <v>2.980089358902621</v>
       </c>
       <c r="E21">
-        <v>42.1541059056412</v>
+        <v>21.29889453732582</v>
       </c>
       <c r="F21">
-        <v>43.96597301420533</v>
+        <v>26.34004199921628</v>
       </c>
       <c r="G21">
-        <v>1.921960137631641</v>
+        <v>3.538927316677012</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.38371778730688</v>
+        <v>17.9841991494933</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.47983568721165</v>
+        <v>18.05983060728496</v>
       </c>
       <c r="O21">
-        <v>35.06394622049999</v>
+        <v>21.8056087360082</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.43591967862778</v>
+        <v>9.287021218569393</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.95297424187675</v>
+        <v>2.996601823451826</v>
       </c>
       <c r="E22">
-        <v>44.10895661968483</v>
+        <v>22.06974545028082</v>
       </c>
       <c r="F22">
-        <v>45.85162006124357</v>
+        <v>26.95133001253828</v>
       </c>
       <c r="G22">
-        <v>1.912376127279526</v>
+        <v>3.536303788819382</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.74832924437956</v>
+        <v>18.07923203987225</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.96934909802551</v>
+        <v>18.23171317604655</v>
       </c>
       <c r="O22">
-        <v>36.57798997088138</v>
+        <v>22.24005346421713</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.20113979645823</v>
+        <v>9.183851410766957</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.898400418239814</v>
+        <v>2.987809729864144</v>
       </c>
       <c r="E23">
-        <v>43.06584919698184</v>
+        <v>21.66154396560651</v>
       </c>
       <c r="F23">
-        <v>44.84813586352317</v>
+        <v>26.62622303281883</v>
       </c>
       <c r="G23">
-        <v>1.917504158225488</v>
+        <v>3.537695321746732</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.5542447908627</v>
+        <v>18.02830472145926</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.70941231798719</v>
+        <v>18.14006050298211</v>
       </c>
       <c r="O23">
-        <v>35.7721815604782</v>
+        <v>22.00873637834044</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.26984737358422</v>
+        <v>8.781868111808409</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.699236793913047</v>
+        <v>2.954050822766922</v>
       </c>
       <c r="E24">
-        <v>39.09829570508382</v>
+        <v>20.0446779839577</v>
       </c>
       <c r="F24">
-        <v>40.9771305559964</v>
+        <v>25.37082113682247</v>
       </c>
       <c r="G24">
-        <v>1.936701052048004</v>
+        <v>3.543157173144086</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.80858259792758</v>
+        <v>17.84012073718833</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.69650411176671</v>
+        <v>17.79136144795663</v>
       </c>
       <c r="O24">
-        <v>32.66517547682047</v>
+        <v>21.12134103057043</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.17489577285955</v>
+        <v>8.326196084739937</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.495039762889497</v>
+        <v>2.916649087185314</v>
       </c>
       <c r="E25">
-        <v>34.71862015935244</v>
+        <v>18.14787061189909</v>
       </c>
       <c r="F25">
-        <v>36.61664450726829</v>
+        <v>23.97300802016276</v>
       </c>
       <c r="G25">
-        <v>1.957245082471015</v>
+        <v>3.54946228545465</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.98659684967534</v>
+        <v>17.64816122966617</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.54803743298115</v>
+        <v>17.4136265380636</v>
       </c>
       <c r="O25">
-        <v>29.16646652915065</v>
+        <v>20.14578213644698</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_223/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_223/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.973936579530329</v>
+        <v>10.29043874989134</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.888251324519063</v>
+        <v>2.349720135345097</v>
       </c>
       <c r="E2">
-        <v>16.71456242210408</v>
+        <v>31.35800337974203</v>
       </c>
       <c r="F2">
-        <v>22.91516405752209</v>
+        <v>33.21936882378017</v>
       </c>
       <c r="G2">
-        <v>3.554465621914874</v>
+        <v>1.9724851766997</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.51723746316919</v>
+        <v>16.37165960169562</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.13588176064243</v>
+        <v>17.66009174000652</v>
       </c>
       <c r="O2">
-        <v>19.41803292077183</v>
+        <v>26.43978069555539</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.726105456002573</v>
+        <v>9.642069640699011</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.868465467081656</v>
+        <v>2.252862348009428</v>
       </c>
       <c r="E3">
-        <v>15.74734985263152</v>
+        <v>28.97648187263921</v>
       </c>
       <c r="F3">
-        <v>22.18566614097691</v>
+        <v>30.78999478642795</v>
       </c>
       <c r="G3">
-        <v>3.558084161067144</v>
+        <v>1.982984461186608</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.43545559361282</v>
+        <v>15.95198825171206</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.94880368210766</v>
+        <v>17.03548212919459</v>
       </c>
       <c r="O3">
-        <v>18.92251440240058</v>
+        <v>24.48849958122702</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.569968192699863</v>
+        <v>9.219808664142498</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.856048993626553</v>
+        <v>2.193806291917562</v>
       </c>
       <c r="E4">
-        <v>15.12794543687676</v>
+        <v>27.45768493464436</v>
       </c>
       <c r="F4">
-        <v>21.73354054194773</v>
+        <v>29.23296184086121</v>
       </c>
       <c r="G4">
-        <v>3.560419138670963</v>
+        <v>1.989542951437367</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.38881070702378</v>
+        <v>15.69401676763148</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.8348163882461</v>
+        <v>16.64211895543886</v>
       </c>
       <c r="O4">
-        <v>18.61841796641237</v>
+        <v>23.23684182374442</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.505429865115993</v>
+        <v>9.041664563526798</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.850921696415942</v>
+        <v>2.169796820415627</v>
       </c>
       <c r="E5">
-        <v>14.86937712186838</v>
+        <v>26.82386341189582</v>
       </c>
       <c r="F5">
-        <v>21.54856223081956</v>
+        <v>28.58168610131688</v>
       </c>
       <c r="G5">
-        <v>3.561399240755241</v>
+        <v>1.992247343678758</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.37072111760673</v>
+        <v>15.58900118244992</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.78863424108822</v>
+        <v>16.47958247474283</v>
       </c>
       <c r="O5">
-        <v>18.49473964450635</v>
+        <v>22.71298257078605</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.494660968687292</v>
+        <v>9.011717599186598</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.85006623315215</v>
+        <v>2.165812207870554</v>
       </c>
       <c r="E6">
-        <v>14.8260790259931</v>
+        <v>26.71769931539489</v>
       </c>
       <c r="F6">
-        <v>21.51781232752263</v>
+        <v>28.4725208977442</v>
       </c>
       <c r="G6">
-        <v>3.561563715616634</v>
+        <v>1.992698422672725</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.36777342702478</v>
+        <v>15.57157555785395</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.78098333545059</v>
+        <v>16.45246571237606</v>
       </c>
       <c r="O6">
-        <v>18.47422376162881</v>
+        <v>22.6251539166524</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.569101375577702</v>
+        <v>9.217430712679993</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.855980118445007</v>
+        <v>2.193482321617041</v>
       </c>
       <c r="E7">
-        <v>15.12448283059672</v>
+        <v>27.44919817488973</v>
       </c>
       <c r="F7">
-        <v>21.73104838485154</v>
+        <v>29.22424680660475</v>
       </c>
       <c r="G7">
-        <v>3.560432240795761</v>
+        <v>1.989579290728182</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.38856299825989</v>
+        <v>15.69259979827783</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.8341924095864</v>
+        <v>16.63993565893848</v>
       </c>
       <c r="O7">
-        <v>18.61674873665768</v>
+        <v>23.22983314973484</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.889357710724819</v>
+        <v>10.07189696902261</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.881484681021925</v>
+        <v>2.316206025784117</v>
       </c>
       <c r="E8">
-        <v>16.3865093745028</v>
+        <v>30.54815235421998</v>
       </c>
       <c r="F8">
-        <v>22.66469596995105</v>
+        <v>32.39507205034562</v>
       </c>
       <c r="G8">
-        <v>3.555689875988606</v>
+        <v>1.976084409734533</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.48831115075855</v>
+        <v>16.22712496895311</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.07122325684954</v>
+        <v>17.44690696866405</v>
       </c>
       <c r="O8">
-        <v>19.24726691713163</v>
+        <v>25.77788376372137</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.4824544463425</v>
+        <v>11.55585895585728</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.929380739128483</v>
+        <v>2.562807521672481</v>
       </c>
       <c r="E9">
-        <v>18.80736662390711</v>
+        <v>36.21211963455747</v>
       </c>
       <c r="F9">
-        <v>24.4489572850658</v>
+        <v>38.1128633371138</v>
       </c>
       <c r="G9">
-        <v>3.547282679132513</v>
+        <v>1.950322133379365</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.71126666152012</v>
+        <v>17.26538367260164</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.54092831277462</v>
+        <v>18.94189970660573</v>
       </c>
       <c r="O9">
-        <v>20.47631796316274</v>
+        <v>30.36699090932273</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.892805469389883</v>
+        <v>12.52970929120776</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.96329102212657</v>
+        <v>2.752223080665947</v>
       </c>
       <c r="E10">
-        <v>20.49547908228563</v>
+        <v>40.18027455303743</v>
       </c>
       <c r="F10">
-        <v>25.71537767688056</v>
+        <v>42.04084519015975</v>
       </c>
       <c r="G10">
-        <v>3.541642386682013</v>
+        <v>1.931517324779009</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.89037526883937</v>
+        <v>18.01259935784359</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.88621396499388</v>
+        <v>19.97606265756468</v>
       </c>
       <c r="O10">
-        <v>21.36392112697861</v>
+        <v>33.51877322859583</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.073239364152236</v>
+        <v>12.94761701402772</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.978442842350302</v>
+        <v>2.841551368769165</v>
       </c>
       <c r="E11">
-        <v>21.22102878584207</v>
+        <v>41.96009371619359</v>
       </c>
       <c r="F11">
-        <v>26.2789289706539</v>
+        <v>43.77766396158044</v>
       </c>
       <c r="G11">
-        <v>3.539191319903617</v>
+        <v>1.922905058533714</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.97487022382017</v>
+        <v>18.34734226049181</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.04275315944065</v>
+        <v>20.4307142622071</v>
       </c>
       <c r="O11">
-        <v>21.76229304255146</v>
+        <v>34.91278061644022</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.140615808878705</v>
+        <v>13.10227306321352</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.984141199598102</v>
+        <v>2.875980977148678</v>
       </c>
       <c r="E12">
-        <v>21.48972210935719</v>
+        <v>42.63217003937999</v>
       </c>
       <c r="F12">
-        <v>26.4903152199852</v>
+        <v>44.42910347968072</v>
       </c>
       <c r="G12">
-        <v>3.538279535533335</v>
+        <v>1.91962681909287</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.0072731922733</v>
+        <v>18.47322318570792</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.10190618682539</v>
+        <v>20.60047737535905</v>
       </c>
       <c r="O12">
-        <v>21.91221204852734</v>
+        <v>35.43574939600597</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.126148118074333</v>
+        <v>13.06912484624274</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.982915702787114</v>
+        <v>2.868536388806265</v>
       </c>
       <c r="E13">
-        <v>21.43212296421097</v>
+        <v>42.48747916994567</v>
       </c>
       <c r="F13">
-        <v>26.44488234123333</v>
+        <v>44.28906556110419</v>
       </c>
       <c r="G13">
-        <v>3.538475177899426</v>
+        <v>1.920333757189961</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.00027699228527</v>
+        <v>18.44615360195266</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.08917283935257</v>
+        <v>20.56402467484079</v>
       </c>
       <c r="O13">
-        <v>21.87996832303193</v>
+        <v>35.32332264407044</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.078801786399685</v>
+        <v>12.96041265918629</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.978912436746874</v>
+        <v>2.844370855340155</v>
       </c>
       <c r="E14">
-        <v>21.24325551487777</v>
+        <v>42.01541264766654</v>
       </c>
       <c r="F14">
-        <v>26.29636144028487</v>
+        <v>43.83137760790592</v>
       </c>
       <c r="G14">
-        <v>3.539115979214815</v>
+        <v>1.922635751368605</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.97752804593542</v>
+        <v>18.35771691037969</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.04762249193304</v>
+        <v>20.44472964347819</v>
       </c>
       <c r="O14">
-        <v>21.77464658914564</v>
+        <v>34.95589883823117</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.049675604494444</v>
+        <v>12.89335534820416</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.976455205106719</v>
+        <v>2.829652280497052</v>
       </c>
       <c r="E15">
-        <v>21.12678111820752</v>
+        <v>41.72606855470212</v>
       </c>
       <c r="F15">
-        <v>26.20511928788498</v>
+        <v>43.55024687919729</v>
       </c>
       <c r="G15">
-        <v>3.539510618406177</v>
+        <v>1.924043294858122</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.9636457851309</v>
+        <v>18.30342859422273</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.02215401479316</v>
+        <v>20.37134134399617</v>
       </c>
       <c r="O15">
-        <v>21.71000761895239</v>
+        <v>34.7302280566252</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.880883512103345</v>
+        <v>12.50189400312869</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.962295308117491</v>
+        <v>2.74646080247185</v>
       </c>
       <c r="E16">
-        <v>20.44721311684653</v>
+        <v>40.06359001551276</v>
       </c>
       <c r="F16">
-        <v>25.67827694917971</v>
+        <v>41.92640926738877</v>
       </c>
       <c r="G16">
-        <v>3.541804868354967</v>
+        <v>1.932078291152919</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.8849117193195</v>
+        <v>17.99060724195165</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.87596887941633</v>
+        <v>19.94602056483713</v>
       </c>
       <c r="O16">
-        <v>21.33776399663439</v>
+        <v>33.42693701927523</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.775697920554309</v>
+        <v>12.25532470262206</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.9535385342362</v>
+        <v>2.696330603022348</v>
       </c>
       <c r="E17">
-        <v>20.01949224721977</v>
+        <v>39.03835436402786</v>
       </c>
       <c r="F17">
-        <v>25.3517026014505</v>
+        <v>40.91803401276293</v>
       </c>
       <c r="G17">
-        <v>3.543241618569027</v>
+        <v>1.936987037635832</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.83736449730081</v>
+        <v>17.79727727844845</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.78611779882749</v>
+        <v>19.68095489707131</v>
       </c>
       <c r="O17">
-        <v>21.10790372692033</v>
+        <v>32.61775505244243</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.714613687309544</v>
+        <v>12.11114096131532</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.948476059198042</v>
+        <v>2.667784052953318</v>
       </c>
       <c r="E18">
-        <v>19.76948715586678</v>
+        <v>38.44616033910535</v>
       </c>
       <c r="F18">
-        <v>25.16269573567658</v>
+        <v>40.3332673603356</v>
       </c>
       <c r="G18">
-        <v>3.544078805245713</v>
+        <v>1.93980557585826</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.81030229408061</v>
+        <v>17.68559980266637</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.73439049486328</v>
+        <v>19.52701623627309</v>
       </c>
       <c r="O18">
-        <v>20.9751943103584</v>
+        <v>32.14853704850329</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.693832984641938</v>
+        <v>12.06191650564073</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.946757555924558</v>
+        <v>2.658163996626812</v>
       </c>
       <c r="E19">
-        <v>19.68415305554162</v>
+        <v>38.24517615015714</v>
       </c>
       <c r="F19">
-        <v>25.09850720800331</v>
+        <v>40.1344294221397</v>
       </c>
       <c r="G19">
-        <v>3.544364121757167</v>
+        <v>1.940759289681549</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.80118939117589</v>
+        <v>17.64770975113489</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.71686987832943</v>
+        <v>19.47464540079021</v>
       </c>
       <c r="O19">
-        <v>20.93018037350943</v>
+        <v>31.98899345666323</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.786955979029495</v>
+        <v>12.28181696041139</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.954473378242521</v>
+        <v>2.701636376945584</v>
       </c>
       <c r="E20">
-        <v>20.06543668049255</v>
+        <v>39.14774034632919</v>
       </c>
       <c r="F20">
-        <v>25.38658970316626</v>
+        <v>41.02586533535001</v>
       </c>
       <c r="G20">
-        <v>3.543087556526535</v>
+        <v>1.936465051754558</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.84239660774314</v>
+        <v>17.81790819761053</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.79568785271765</v>
+        <v>19.7093257686109</v>
       </c>
       <c r="O20">
-        <v>21.13242566986916</v>
+        <v>32.70428157197173</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.092734726993216</v>
+        <v>12.99244155991446</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.980089358902621</v>
+        <v>2.851451138798412</v>
       </c>
       <c r="E21">
-        <v>21.29889453732582</v>
+        <v>42.15410590564117</v>
       </c>
       <c r="F21">
-        <v>26.34004199921628</v>
+        <v>43.96597301420545</v>
       </c>
       <c r="G21">
-        <v>3.538927316677012</v>
+        <v>1.921960137631644</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.9841991494933</v>
+        <v>18.38371778730688</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.05983060728496</v>
+        <v>20.47983568721167</v>
       </c>
       <c r="O21">
-        <v>21.8056087360082</v>
+        <v>35.0639462205001</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.287021218569393</v>
+        <v>13.43591967862777</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.996601823451826</v>
+        <v>2.952974241876813</v>
       </c>
       <c r="E22">
-        <v>22.06974545028082</v>
+        <v>44.1089566196849</v>
       </c>
       <c r="F22">
-        <v>26.95133001253828</v>
+        <v>45.85162006124362</v>
       </c>
       <c r="G22">
-        <v>3.536303788819382</v>
+        <v>1.912376127279533</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.07923203987225</v>
+        <v>18.74832924437955</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.23171317604655</v>
+        <v>20.96934909802551</v>
       </c>
       <c r="O22">
-        <v>22.24005346421713</v>
+        <v>36.57798997088143</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.183851410766957</v>
+        <v>13.20113979645824</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.987809729864144</v>
+        <v>2.898400418239745</v>
       </c>
       <c r="E23">
-        <v>21.66154396560651</v>
+        <v>43.06584919698184</v>
       </c>
       <c r="F23">
-        <v>26.62622303281883</v>
+        <v>44.84813586352318</v>
       </c>
       <c r="G23">
-        <v>3.537695321746732</v>
+        <v>1.917504158225757</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.02830472145926</v>
+        <v>18.55424479086269</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.14006050298211</v>
+        <v>20.70941231798719</v>
       </c>
       <c r="O23">
-        <v>22.00873637834044</v>
+        <v>35.77218156047817</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.781868111808409</v>
+        <v>12.2698473735842</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.954050822766922</v>
+        <v>2.699236793912925</v>
       </c>
       <c r="E24">
-        <v>20.0446779839577</v>
+        <v>39.0982957050839</v>
       </c>
       <c r="F24">
-        <v>25.37082113682247</v>
+        <v>40.97713055599647</v>
       </c>
       <c r="G24">
-        <v>3.543157173144086</v>
+        <v>1.936701052047602</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.84012073718833</v>
+        <v>17.80858259792758</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.79136144795663</v>
+        <v>19.69650411176672</v>
       </c>
       <c r="O24">
-        <v>21.12134103057043</v>
+        <v>32.66517547682052</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.326196084739937</v>
+        <v>11.17489577285958</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.916649087185314</v>
+        <v>2.495039762889496</v>
       </c>
       <c r="E25">
-        <v>18.14787061189909</v>
+        <v>34.71862015935243</v>
       </c>
       <c r="F25">
-        <v>23.97300802016276</v>
+        <v>36.61664450726826</v>
       </c>
       <c r="G25">
-        <v>3.54946228545465</v>
+        <v>1.957245082471155</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.64816122966617</v>
+        <v>16.98659684967526</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.4136265380636</v>
+        <v>18.54803743298109</v>
       </c>
       <c r="O25">
-        <v>20.14578213644698</v>
+        <v>29.16646652915063</v>
       </c>
     </row>
   </sheetData>
